--- a/（SIP）第3期_アンケート【教員向け】(1-24).xlsx
+++ b/（SIP）第3期_アンケート【教員向け】(1-24).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libanhassan/Documents/sip3-barcharts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF1DB22-7AEC-0C4B-82F0-0BA5FE6114D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05718B85-A7E0-0E47-8D54-DDC3AB82D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31620" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -629,7 +629,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -781,10 +781,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4623,15 +4623,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100EF0C7B048E76264585B1E32028F5B2C8" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b5f53dcda619ecb42cd5cfca05a1ffdd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a144396-f609-446d-af64-1dd2438cd59b" xmlns:ns3="2ae1b27a-dfd9-4777-b6f3-4983f3e82785" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d1857b6b7eb9e00b4ad6bea8b5c49ac" ns2:_="" ns3:_="">
     <xsd:import namespace="0a144396-f609-446d-af64-1dd2438cd59b"/>
@@ -4832,6 +4823,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4844,14 +4844,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FDA1ADA-0951-41EE-849D-CF7E01D43315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D88EE31-769D-4034-9D18-BBBB24530B87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4870,6 +4862,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FDA1ADA-0951-41EE-849D-CF7E01D43315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FA4AA40-E302-4B61-BC86-6AEDEFF04700}">
   <ds:schemaRefs>
